--- a/dane.xlsx
+++ b/dane.xlsx
@@ -8,20 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakubjarzembowski/Desktop/Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B9913A-53EA-7343-B124-770072D28C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7029A0B3-70DA-354C-BE3A-459FD6BFB25D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="okreg" sheetId="1" r:id="rId1"/>
     <sheet name="rejon" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
     <t>Razem</t>
   </si>
@@ -36,23 +49,6 @@
   </si>
   <si>
     <t>suma do 3 lat</t>
-  </si>
-  <si>
-    <t>Średni czas
-trwania postęp.
-sądowego*</t>
-  </si>
-  <si>
-    <t>Sprawy gospodarcze</t>
-  </si>
-  <si>
-    <t>cywilne</t>
-  </si>
-  <si>
-    <t>prawa pracy i ubezpieczen</t>
-  </si>
-  <si>
-    <t>TYP</t>
   </si>
   <si>
     <t>RODZAJ</t>
@@ -70,31 +66,7 @@
     <t>procent do 3 lat</t>
   </si>
   <si>
-    <t>gospodarcze</t>
-  </si>
-  <si>
     <t>mean</t>
-  </si>
-  <si>
-    <t>procesowe</t>
-  </si>
-  <si>
-    <t>szkody geologiczne i górnicze</t>
-  </si>
-  <si>
-    <t>nieprocesowe</t>
-  </si>
-  <si>
-    <t>nakazowe i upominawcze</t>
-  </si>
-  <si>
-    <t>ogólne</t>
-  </si>
-  <si>
-    <t>procesowe z zakr. Ubezpieczeń</t>
-  </si>
-  <si>
-    <t>procesowe z zakr. prawa pracy</t>
   </si>
 </sst>
 </file>
@@ -138,7 +110,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -191,29 +163,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -231,9 +191,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -246,17 +203,14 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1418,369 +1372,201 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="41" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.33203125" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.33203125" style="1"/>
+    <col min="1" max="1" width="44" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.33203125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="14" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:11" s="11" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="K1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="11" t="s">
+    </row>
+    <row r="2" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="11" t="s">
+      <c r="B2" s="4">
+        <v>88662</v>
+      </c>
+      <c r="C2" s="5">
+        <v>16868</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0.19</v>
+      </c>
+      <c r="E2" s="5">
+        <v>39789</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="G2" s="5">
+        <v>65529</v>
+      </c>
+      <c r="H2" s="6">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="I2" s="5">
+        <v>85707</v>
+      </c>
+      <c r="J2" s="6">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="K2" s="3">
+        <v>10.625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="B3" s="2">
+        <v>111</v>
+      </c>
+      <c r="C3" s="3">
         <v>12</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="D3" s="6">
+        <v>0.108</v>
+      </c>
+      <c r="E3" s="3">
+        <v>16</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="G3" s="3">
+        <v>29</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="I3" s="3">
+        <v>87</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="K3" s="3">
+        <v>25.919</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="13">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4">
+        <v>58061</v>
+      </c>
+      <c r="C4" s="5">
+        <v>13534</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="E4" s="5">
+        <v>25439</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.438</v>
+      </c>
+      <c r="G4" s="5">
+        <v>43605</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0.751</v>
+      </c>
+      <c r="I4" s="5">
+        <v>56789</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="K4" s="1">
+        <v>12.08</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="13">
         <v>3</v>
       </c>
-      <c r="I1" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="5">
-        <v>88662</v>
-      </c>
-      <c r="D2" s="6">
-        <v>16868</v>
-      </c>
-      <c r="E2" s="7">
-        <v>0.19</v>
-      </c>
-      <c r="F2" s="6">
-        <v>39789</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0.44900000000000001</v>
-      </c>
-      <c r="H2" s="6">
-        <v>65529</v>
-      </c>
-      <c r="I2" s="7">
-        <v>0.73899999999999999</v>
-      </c>
-      <c r="J2" s="6">
-        <v>85707</v>
-      </c>
-      <c r="K2" s="7">
-        <v>0.96699999999999997</v>
-      </c>
-      <c r="L2" s="4">
-        <v>10.625</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="3">
-        <v>111</v>
-      </c>
-      <c r="D3" s="4">
-        <v>12</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0.108</v>
-      </c>
-      <c r="F3" s="4">
-        <v>16</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="H3" s="4">
-        <v>29</v>
-      </c>
-      <c r="I3" s="7">
-        <v>0.26100000000000001</v>
-      </c>
-      <c r="J3" s="4">
-        <v>87</v>
-      </c>
-      <c r="K3" s="7">
-        <v>0.78400000000000003</v>
-      </c>
-      <c r="L3" s="4">
-        <v>25.919</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="5">
-        <v>13555</v>
-      </c>
-      <c r="D4" s="6">
-        <v>2768</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0.20399999999999999</v>
-      </c>
-      <c r="F4" s="6">
-        <v>6396</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0.47199999999999998</v>
-      </c>
-      <c r="H4" s="6">
-        <v>11786</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0.86899999999999999</v>
-      </c>
-      <c r="J4" s="6">
-        <v>13516</v>
-      </c>
-      <c r="K4" s="7">
-        <v>0.997</v>
-      </c>
-      <c r="L4" s="4">
-        <v>7.6929999999999996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="5">
-        <v>7368</v>
+      <c r="B5" s="4">
+        <v>10957</v>
+      </c>
+      <c r="C5" s="3">
+        <v>815</v>
       </c>
       <c r="D5" s="6">
-        <v>3595</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0.48799999999999999</v>
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2127</v>
       </c>
       <c r="F5" s="6">
-        <v>5425</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0.73599999999999999</v>
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="G5" s="5">
+        <v>4983</v>
       </c>
       <c r="H5" s="6">
-        <v>6791</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0.92200000000000004</v>
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="I5" s="5">
+        <v>9185</v>
       </c>
       <c r="J5" s="6">
-        <v>7328</v>
-      </c>
-      <c r="K5" s="7">
-        <v>0.995</v>
-      </c>
-      <c r="L5" s="4">
-        <v>5.2889999999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="5">
-        <v>9952</v>
-      </c>
-      <c r="D6" s="6">
-        <v>6958</v>
-      </c>
-      <c r="E6" s="7">
-        <v>0.69899999999999995</v>
-      </c>
-      <c r="F6" s="6">
-        <v>8485</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0.85299999999999998</v>
-      </c>
-      <c r="H6" s="6">
-        <v>9444</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0.94899999999999995</v>
-      </c>
-      <c r="J6" s="6">
-        <v>9922</v>
-      </c>
-      <c r="K6" s="7">
-        <v>0.997</v>
-      </c>
-      <c r="L6" s="4">
-        <v>3.7349999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="5">
-        <v>58061</v>
-      </c>
-      <c r="D7" s="6">
-        <v>13534</v>
-      </c>
-      <c r="E7" s="7">
-        <v>0.23300000000000001</v>
-      </c>
-      <c r="F7" s="6">
-        <v>25439</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0.438</v>
-      </c>
-      <c r="H7" s="6">
-        <v>43605</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0.751</v>
-      </c>
-      <c r="J7" s="6">
-        <v>56789</v>
-      </c>
-      <c r="K7" s="7">
-        <v>0.97799999999999998</v>
-      </c>
-      <c r="L7" s="4">
-        <v>10.007</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="3">
-        <v>851</v>
-      </c>
-      <c r="D8" s="4">
-        <v>321</v>
-      </c>
-      <c r="E8" s="7">
-        <v>0.377</v>
-      </c>
-      <c r="F8" s="4">
-        <v>446</v>
-      </c>
-      <c r="G8" s="7">
-        <v>0.52400000000000002</v>
-      </c>
-      <c r="H8" s="4">
-        <v>581</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0.68300000000000005</v>
-      </c>
-      <c r="J8" s="4">
-        <v>757</v>
-      </c>
-      <c r="K8" s="7">
-        <v>0.89</v>
-      </c>
-      <c r="L8" s="4">
-        <v>14.154</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="5">
-        <v>10957</v>
-      </c>
-      <c r="D9" s="4">
-        <v>815</v>
-      </c>
-      <c r="E9" s="7">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="F9" s="6">
-        <v>2127</v>
-      </c>
-      <c r="G9" s="7">
-        <v>0.19400000000000001</v>
-      </c>
-      <c r="H9" s="6">
-        <v>4983</v>
-      </c>
-      <c r="I9" s="7">
-        <v>0.45500000000000002</v>
-      </c>
-      <c r="J9" s="6">
-        <v>9185</v>
-      </c>
-      <c r="K9" s="7">
         <v>0.83799999999999997</v>
       </c>
-      <c r="L9" s="4">
+      <c r="K5" s="3">
         <v>20.715</v>
       </c>
     </row>
@@ -1798,332 +1584,167 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.83203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.83203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.83203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.33203125" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.33203125" style="1"/>
+    <col min="1" max="1" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.33203125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="14" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:11" s="11" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="K1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="11" t="s">
+    </row>
+    <row r="2" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="11" t="s">
+      <c r="B2" s="4">
+        <v>423370</v>
+      </c>
+      <c r="C2" s="5">
+        <v>28548</v>
+      </c>
+      <c r="D2" s="6">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="E2" s="5">
+        <v>92413</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0.218</v>
+      </c>
+      <c r="G2" s="5">
+        <v>240036</v>
+      </c>
+      <c r="H2" s="6">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="I2" s="5">
+        <v>402445</v>
+      </c>
+      <c r="J2" s="6">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="K2" s="3">
+        <v>14.829000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="G1" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="11" t="s">
+      <c r="B3" s="2">
+        <v>121</v>
+      </c>
+      <c r="C3" s="3">
+        <v>17</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E3" s="3">
+        <v>22</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0.182</v>
+      </c>
+      <c r="G3" s="3">
+        <v>28</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="I3" s="3">
+        <v>104</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0.86</v>
+      </c>
+      <c r="K3" s="3">
+        <v>23.256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="I1" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="5">
-        <v>423370</v>
-      </c>
-      <c r="D2" s="6">
-        <v>28548</v>
-      </c>
-      <c r="E2" s="7">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="F2" s="6">
-        <v>92413</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0.218</v>
-      </c>
-      <c r="H2" s="6">
-        <v>240036</v>
-      </c>
-      <c r="I2" s="7">
-        <v>0.56699999999999995</v>
-      </c>
-      <c r="J2" s="6">
-        <v>402445</v>
-      </c>
-      <c r="K2" s="7">
-        <v>0.95099999999999996</v>
-      </c>
-      <c r="L2" s="4">
-        <v>14.829000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="3">
-        <v>121</v>
-      </c>
-      <c r="D3" s="4">
-        <v>17</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="F3" s="4">
-        <v>22</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0.182</v>
-      </c>
-      <c r="H3" s="4">
-        <v>28</v>
-      </c>
-      <c r="I3" s="7">
-        <v>0.23100000000000001</v>
-      </c>
-      <c r="J3" s="4">
-        <v>104</v>
-      </c>
-      <c r="K3" s="7">
-        <v>0.86</v>
-      </c>
-      <c r="L3" s="4">
-        <v>23.256</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>19</v>
+      <c r="B4" s="4">
+        <v>108006</v>
       </c>
       <c r="C4" s="5">
-        <v>171077</v>
+        <v>4486</v>
       </c>
       <c r="D4" s="6">
-        <v>47539</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0.27800000000000002</v>
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="E4" s="5">
+        <v>14889</v>
       </c>
       <c r="F4" s="6">
-        <v>89563</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0.52400000000000002</v>
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="G4" s="5">
+        <v>45768</v>
       </c>
       <c r="H4" s="6">
-        <v>129835</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0.75900000000000001</v>
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="I4" s="5">
+        <v>100625</v>
       </c>
       <c r="J4" s="6">
-        <v>163041</v>
-      </c>
-      <c r="K4" s="7">
-        <v>0.95299999999999996</v>
-      </c>
-      <c r="L4" s="4">
-        <v>10.505000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="5">
-        <v>419612</v>
-      </c>
-      <c r="D5" s="6">
-        <v>166897</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0.39800000000000002</v>
-      </c>
-      <c r="F5" s="6">
-        <v>276629</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0.65900000000000003</v>
-      </c>
-      <c r="H5" s="6">
-        <v>376436</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0.89700000000000002</v>
-      </c>
-      <c r="J5" s="6">
-        <v>416073</v>
-      </c>
-      <c r="K5" s="7">
-        <v>0.99199999999999999</v>
-      </c>
-      <c r="L5" s="4">
-        <v>6.2809999999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="5">
-        <v>108006</v>
-      </c>
-      <c r="D6" s="6">
-        <v>4486</v>
-      </c>
-      <c r="E6" s="7">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="F6" s="6">
-        <v>14889</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0.13800000000000001</v>
-      </c>
-      <c r="H6" s="6">
-        <v>45768</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0.42399999999999999</v>
-      </c>
-      <c r="J6" s="6">
-        <v>100625</v>
-      </c>
-      <c r="K6" s="7">
         <v>0.93200000000000005</v>
       </c>
-      <c r="L6" s="4">
+      <c r="K4" s="3">
         <v>17.571999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="3">
-        <v>278</v>
-      </c>
-      <c r="D7" s="4">
-        <v>54</v>
-      </c>
-      <c r="E7" s="7">
-        <v>0.19400000000000001</v>
-      </c>
-      <c r="F7" s="4">
-        <v>84</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0.30199999999999999</v>
-      </c>
-      <c r="H7" s="4">
-        <v>179</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0.64400000000000002</v>
-      </c>
-      <c r="J7" s="4">
-        <v>254</v>
-      </c>
-      <c r="K7" s="7">
-        <v>0.91400000000000003</v>
-      </c>
-      <c r="L7" s="4">
-        <v>15.054</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="5">
-        <v>174863</v>
-      </c>
-      <c r="D8" s="6">
-        <v>52134</v>
-      </c>
-      <c r="E8" s="7">
-        <v>0.29799999999999999</v>
-      </c>
-      <c r="F8" s="6">
-        <v>110906</v>
-      </c>
-      <c r="G8" s="7">
-        <v>0.63400000000000001</v>
-      </c>
-      <c r="H8" s="6">
-        <v>159229</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0.91100000000000003</v>
-      </c>
-      <c r="J8" s="6">
-        <v>173981</v>
-      </c>
-      <c r="K8" s="7">
-        <v>0.995</v>
-      </c>
-      <c r="L8" s="4">
-        <v>6.3920000000000003</v>
       </c>
     </row>
   </sheetData>
